--- a/project-management.xlsx
+++ b/project-management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bertelsmann-my.sharepoint.com/personal/jonas_knaup_bertelsmann_de/Documents/Nanodegree_2/Projekt 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas.knaup/Projects/Agile-Development-with-Azure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_68D6E1165412CAE098678C0F5588829A556AA596" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A06AC1E-431D-B541-92DC-3BCA45FFF7FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61D40B1-1F6F-4D4F-81D1-6BA222D44472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69560" yWindow="4840" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68800" yWindow="4840" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Week</t>
   </si>
   <si>
-    <t>&lt;component&gt;</t>
-  </si>
-  <si>
     <t>Goals</t>
-  </si>
-  <si>
-    <t>Submit project</t>
   </si>
   <si>
     <t>Yearly plan:</t>
@@ -68,6 +62,36 @@
   </si>
   <si>
     <t>Create Readme</t>
+  </si>
+  <si>
+    <t>CI / CD</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>setup project</t>
+  </si>
+  <si>
+    <t>create CI &amp; CD</t>
+  </si>
+  <si>
+    <t>create docu</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
   </si>
 </sst>
 </file>
@@ -380,7 +404,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -388,11 +414,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -420,11 +452,11 @@
         <v>45096</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -450,11 +482,13 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -480,11 +514,13 @@
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -512,11 +548,13 @@
         <v>45103</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -540,15 +578,15 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>45100</v>
-      </c>
+      <c r="A6" s="10"/>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -572,15 +610,14 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>45101</v>
+      <c r="A7" s="10"/>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -604,15 +641,14 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>45102</v>
+      <c r="A8" s="10"/>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -636,15 +672,14 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>45103</v>
+      <c r="A9" s="10"/>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -671,12 +706,13 @@
       <c r="A10" s="10">
         <v>45104</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -701,14 +737,15 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
-        <v>45105</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>45104</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -790,11 +827,9 @@
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -822,10 +857,14 @@
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -879,10 +918,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -28435,5 +28474,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>